--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/Upload/ARomao_such_pt_PrecosVendaRecursosCliente.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/Upload/ARomao_such_pt_PrecosVendaRecursosCliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GITHUB\Hydra.Such.Portal\Hydra.Such.Portal\Hydra.Such.Portal\wwwroot\Upload\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4898F103-A6E1-40DE-925C-A7DBF5AC1C22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F08B0C-31DA-4E0D-B7F5-54D001EB53A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="I981" sqref="I981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
